--- a/biology/Zoologie/Archaeobatrachia/Archaeobatrachia.xlsx
+++ b/biology/Zoologie/Archaeobatrachia/Archaeobatrachia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeobatrachia est un sous-ordre d'amphibiens anoures primitifs selon la classification classique. Les analyses récentes ont démontré que ce taxon était paraphylétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des familles actuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clade N.N.:
 Ascaphidae Fejérváry, 1923
@@ -546,10 +560,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les familles de ce sous-ordre paraphylétique sont celles placées à la base de l'arbre phylogénique des anoures, en dehors du clade Pipanura qui regroupe les deux autres sous-ordres Mesobatrachia (paraphylétique également) et Neobatrachia.
-Phylogénie des familles basales de l'ordre Anura, d'après Pyron et Wiens (2011)[1] ainsi que Frost et al. (2006)[2] et Heinicke et al. (2009)[3] pour les noms de clades :
+Phylogénie des familles basales de l'ordre Anura, d'après Pyron et Wiens (2011) ainsi que Frost et al. (2006) et Heinicke et al. (2009) pour les noms de clades :
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
